--- a/printerIP.xlsx
+++ b/printerIP.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asianham/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AsianHam\Documents\GitHub\printerCheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F062E409-AE4B-7842-BA25-DE8D3289571D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{084ABD02-259E-5F49-ADFF-6810FCE92F86}"/>
+    <workbookView xWindow="5184" yWindow="1860" windowWidth="28044" windowHeight="17436"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Brand</t>
   </si>
@@ -43,12 +42,21 @@
   </si>
   <si>
     <t>Lewisohn 106A</t>
+  </si>
+  <si>
+    <t>Ricoh</t>
+  </si>
+  <si>
+    <t>128.59.207.103</t>
+  </si>
+  <si>
+    <t>Lewisohn 203</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -393,20 +401,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D08BD7-3C0A-1340-A1FF-7D3D358C63A9}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -426,6 +434,17 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/printerIP.xlsx
+++ b/printerIP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Brand</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Lewisohn 203</t>
+  </si>
+  <si>
+    <t>128.59.207.99</t>
+  </si>
+  <si>
+    <t>Lewisohn 214</t>
   </si>
 </sst>
 </file>
@@ -402,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -447,6 +453,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/printerIP.xlsx
+++ b/printerIP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Brand</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Lewisohn 203</t>
+  </si>
+  <si>
+    <t>10.60.104.13</t>
   </si>
   <si>
     <t>128.59.207.99</t>
@@ -63,10 +66,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,13 +106,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -408,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -446,7 +466,7 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
@@ -461,10 +481,22 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/printerIP.xlsx
+++ b/printerIP.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AsianHam\Documents\GitHub\printerCheck\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abo2114\Documents\GitHub\printerCheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5184" yWindow="1860" windowWidth="28044" windowHeight="17436"/>
+    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Brand</t>
   </si>
@@ -45,15 +45,6 @@
   </si>
   <si>
     <t>Ricoh</t>
-  </si>
-  <si>
-    <t>128.59.207.103</t>
-  </si>
-  <si>
-    <t>Lewisohn 203</t>
-  </si>
-  <si>
-    <t>10.60.104.13</t>
   </si>
   <si>
     <t>128.59.207.99</t>
@@ -66,24 +57,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,16 +83,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -428,19 +402,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -462,37 +436,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/printerIP.xlsx
+++ b/printerIP.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abo2114\Documents\GitHub\printerCheck\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gh2532\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="5175" yWindow="1860" windowWidth="28035" windowHeight="17445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>Brand</t>
   </si>
@@ -47,20 +47,106 @@
     <t>Ricoh</t>
   </si>
   <si>
+    <t>128.59.207.102</t>
+  </si>
+  <si>
+    <t>Lewisohn 303</t>
+  </si>
+  <si>
+    <t>10.60.104.13</t>
+  </si>
+  <si>
+    <t>Lewisohn 203</t>
+  </si>
+  <si>
+    <t>10.60.104.12</t>
+  </si>
+  <si>
+    <t>128.59.207.48</t>
+  </si>
+  <si>
+    <t>128.59.36.200</t>
+  </si>
+  <si>
+    <t>Midtown</t>
+  </si>
+  <si>
     <t>128.59.207.99</t>
   </si>
   <si>
+    <t>10.60.104.29</t>
+  </si>
+  <si>
+    <t>128.59.125.16</t>
+  </si>
+  <si>
+    <t>Broadway</t>
+  </si>
+  <si>
+    <t>128.59.36.208</t>
+  </si>
+  <si>
+    <t>128.59.207.103</t>
+  </si>
+  <si>
+    <t>128.59.207.105</t>
+  </si>
+  <si>
+    <t>128.59.207.108</t>
+  </si>
+  <si>
+    <t>128.59.207.104</t>
+  </si>
+  <si>
+    <t>10.60.104.35</t>
+  </si>
+  <si>
+    <t>10.60.104.31</t>
+  </si>
+  <si>
+    <t>10.60.104.30</t>
+  </si>
+  <si>
+    <t>128.59.207.57</t>
+  </si>
+  <si>
+    <t>128.59.125.19</t>
+  </si>
+  <si>
+    <t>128.59.125.18</t>
+  </si>
+  <si>
+    <t>Lewisohn 504</t>
+  </si>
+  <si>
     <t>Lewisohn 214</t>
+  </si>
+  <si>
+    <t>Lewisohn 510</t>
+  </si>
+  <si>
+    <t>Lewisohn 212D</t>
+  </si>
+  <si>
+    <t>Lewisohn 502</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,13 +169,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -402,19 +491,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -436,19 +525,219 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>2875</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="http://128.59.207.102/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/printerIP.xlsx
+++ b/printerIP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gh2532\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abo2114\Documents\GitHub\printerCheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>Brand</t>
   </si>
@@ -113,9 +113,6 @@
     <t>128.59.125.19</t>
   </si>
   <si>
-    <t>128.59.125.18</t>
-  </si>
-  <si>
     <t>Lewisohn 504</t>
   </si>
   <si>
@@ -129,6 +126,12 @@
   </si>
   <si>
     <t>Lewisohn 502</t>
+  </si>
+  <si>
+    <t>10.60.254.12</t>
+  </si>
+  <si>
+    <t>60th St 9th Flr</t>
   </si>
 </sst>
 </file>
@@ -493,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -566,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -588,7 +591,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -599,7 +602,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -643,7 +646,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -654,7 +657,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -665,7 +668,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -698,7 +701,7 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -725,13 +728,13 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21">
-        <v>2875</v>
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/printerIP.xlsx
+++ b/printerIP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abo2114\Documents\GitHub\printerCheck\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asian\Documents\GitHub\printerCheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B0AB90-2AC6-4875-8B0B-394130238AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="1860" windowWidth="28035" windowHeight="17445"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Brand</t>
   </si>
@@ -38,118 +39,29 @@
     <t>HP</t>
   </si>
   <si>
-    <t>128.59.207.121</t>
-  </si>
-  <si>
-    <t>Lewisohn 106A</t>
-  </si>
-  <si>
     <t>Ricoh</t>
   </si>
   <si>
-    <t>128.59.207.102</t>
-  </si>
-  <si>
-    <t>Lewisohn 303</t>
-  </si>
-  <si>
-    <t>10.60.104.13</t>
-  </si>
-  <si>
-    <t>Lewisohn 203</t>
-  </si>
-  <si>
-    <t>10.60.104.12</t>
-  </si>
-  <si>
-    <t>128.59.207.48</t>
-  </si>
-  <si>
-    <t>128.59.36.200</t>
-  </si>
-  <si>
-    <t>Midtown</t>
-  </si>
-  <si>
-    <t>128.59.207.99</t>
-  </si>
-  <si>
-    <t>10.60.104.29</t>
-  </si>
-  <si>
-    <t>128.59.125.16</t>
-  </si>
-  <si>
-    <t>Broadway</t>
-  </si>
-  <si>
-    <t>128.59.36.208</t>
-  </si>
-  <si>
-    <t>128.59.207.103</t>
-  </si>
-  <si>
-    <t>128.59.207.105</t>
-  </si>
-  <si>
-    <t>128.59.207.108</t>
-  </si>
-  <si>
-    <t>128.59.207.104</t>
-  </si>
-  <si>
-    <t>10.60.104.35</t>
-  </si>
-  <si>
-    <t>10.60.104.31</t>
-  </si>
-  <si>
-    <t>10.60.104.30</t>
-  </si>
-  <si>
-    <t>128.59.207.57</t>
-  </si>
-  <si>
-    <t>128.59.125.19</t>
-  </si>
-  <si>
-    <t>Lewisohn 504</t>
-  </si>
-  <si>
-    <t>Lewisohn 214</t>
-  </si>
-  <si>
-    <t>Lewisohn 510</t>
-  </si>
-  <si>
-    <t>Lewisohn 212D</t>
-  </si>
-  <si>
-    <t>Lewisohn 502</t>
-  </si>
-  <si>
-    <t>10.60.254.12</t>
-  </si>
-  <si>
-    <t>60th St 9th Flr</t>
+    <t>123.45.678.901</t>
+  </si>
+  <si>
+    <t>123.45.678.902</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Test 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,16 +84,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -493,11 +402,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -522,225 +431,24 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20">
-        <v>2875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://128.59.207.102/"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>